--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:46:20+00:00</t>
+    <t>2023-02-18T10:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:13:11+00:00</t>
+    <t>2023-02-18T11:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:17:38+00:00</t>
+    <t>2023-02-18T14:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:27:51+00:00</t>
+    <t>2023-02-21T11:45:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
+++ b/branches/master/ValueSet-vs-hiv-diagnosis.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:45:55+00:00</t>
+    <t>2023-02-21T13:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
